--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_Zcar.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_Zcar.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Có BH</t>
-  </si>
-  <si>
-    <t>Xác đinh lỗi</t>
   </si>
   <si>
     <t xml:space="preserve">Kết Quả </t>
@@ -232,6 +229,30 @@
   </si>
   <si>
     <t>Zcar</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Thay MCU (GD), xử lý lại anten GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>GPS,NCFW,MCU</t>
+  </si>
+  <si>
+    <t>Le4.1.04.BOO01.221222</t>
   </si>
 </sst>
 </file>
@@ -434,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,6 +655,33 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,34 +700,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +1013,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,9 +1027,9 @@
     <col min="7" max="7" width="17" style="10" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="10" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="53" style="10" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" style="20" customWidth="1"/>
     <col min="13" max="13" width="58" style="10" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="10" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="10" customWidth="1"/>
@@ -1021,46 +1045,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="71"/>
+      <c r="A2" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1077,7 +1101,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="41"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1088,57 +1112,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>14</v>
+      <c r="P4" s="71" t="s">
+        <v>13</v>
       </c>
       <c r="Q4" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="67" t="s">
-        <v>53</v>
+      <c r="U4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>4</v>
@@ -1158,65 +1182,85 @@
         <v>5</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="67"/>
+        <v>14</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>11</v>
+      </c>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="L5" s="74"/>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="83">
         <v>45034</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="83">
+        <v>45035</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="66">
+        <v>862205051191163</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="32">
-        <v>862205051191163</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="S6" s="65"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
-        <v>18</v>
+      <c r="U6" s="68" t="s">
+        <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W6" s="12"/>
     </row>
@@ -1232,7 +1276,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
       <c r="M7" s="63"/>
@@ -1243,9 +1287,9 @@
       <c r="R7" s="64"/>
       <c r="S7" s="65"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W7" s="12"/>
     </row>
@@ -1261,7 +1305,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
       <c r="M8" s="63"/>
@@ -1272,9 +1316,9 @@
       <c r="R8" s="64"/>
       <c r="S8" s="65"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W8" s="12"/>
     </row>
@@ -1291,7 +1335,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="60"/>
       <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="62"/>
       <c r="M9" s="63"/>
       <c r="N9" s="61"/>
@@ -1301,9 +1345,9 @@
       <c r="R9" s="64"/>
       <c r="S9" s="65"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9" s="12"/>
     </row>
@@ -1319,8 +1363,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
       <c r="N10" s="61"/>
@@ -1330,9 +1374,9 @@
       <c r="R10" s="64"/>
       <c r="S10" s="65"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W10" s="12"/>
     </row>
@@ -1348,7 +1392,7 @@
       <c r="G11" s="48"/>
       <c r="H11" s="56"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
@@ -1359,9 +1403,9 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W11" s="12"/>
     </row>
@@ -1377,7 +1421,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="56"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52"/>
@@ -1388,11 +1432,11 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
-        <v>19</v>
+      <c r="U12" s="68" t="s">
+        <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W12" s="12"/>
     </row>
@@ -1409,7 +1453,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="49"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
@@ -1419,9 +1463,9 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" s="12"/>
     </row>
@@ -1438,7 +1482,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="49"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1"/>
@@ -1448,9 +1492,9 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W14" s="12"/>
     </row>
@@ -1467,7 +1511,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="49"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="51"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
@@ -1477,9 +1521,9 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W15" s="12"/>
     </row>
@@ -1496,7 +1540,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="49"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="33"/>
       <c r="N16" s="1"/>
@@ -1506,9 +1550,9 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W16" s="12"/>
     </row>
@@ -1524,8 +1568,8 @@
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="51"/>
       <c r="M17" s="33"/>
       <c r="N17" s="1"/>
@@ -1552,7 +1596,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="49"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="51"/>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
@@ -1578,8 +1622,8 @@
       <c r="G19" s="31"/>
       <c r="H19" s="1"/>
       <c r="I19" s="49"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="52"/>
       <c r="N19" s="50"/>
@@ -1590,10 +1634,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="12"/>
       <c r="U19" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W19" s="38"/>
     </row>
@@ -1609,8 +1653,8 @@
       <c r="G20" s="31"/>
       <c r="H20" s="1"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="52"/>
       <c r="N20" s="50"/>
@@ -1621,7 +1665,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="12"/>
       <c r="U20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V20" s="3">
         <v>4</v>
@@ -1640,8 +1684,8 @@
       <c r="G21" s="31"/>
       <c r="H21" s="1"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
       <c r="N21" s="1"/>
@@ -1652,7 +1696,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="12"/>
       <c r="U21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
@@ -1673,7 +1717,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="43"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="1"/>
@@ -1684,7 +1728,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="12"/>
       <c r="U22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="12"/>
@@ -1701,8 +1745,8 @@
       <c r="G23" s="31"/>
       <c r="H23" s="3"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="1"/>
@@ -1728,8 +1772,8 @@
       <c r="G24" s="31"/>
       <c r="H24" s="3"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="1"/>
@@ -1755,8 +1799,8 @@
       <c r="G25" s="31"/>
       <c r="H25" s="3"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="1"/>
@@ -1767,10 +1811,10 @@
       <c r="S25" s="3"/>
       <c r="T25" s="12"/>
       <c r="U25" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W25" s="38"/>
     </row>
@@ -1786,8 +1830,8 @@
       <c r="G26" s="31"/>
       <c r="H26" s="3"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="1"/>
@@ -1798,11 +1842,11 @@
       <c r="S26" s="3"/>
       <c r="T26" s="12"/>
       <c r="U26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="12"/>
     </row>
@@ -1818,8 +1862,8 @@
       <c r="G27" s="31"/>
       <c r="H27" s="3"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="1"/>
@@ -1830,7 +1874,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="12"/>
       <c r="U27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V27" s="3">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
@@ -1851,7 +1895,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="43"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="1"/>
@@ -1862,11 +1906,11 @@
       <c r="S28" s="3"/>
       <c r="T28" s="12"/>
       <c r="U28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V28" s="3">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="12"/>
     </row>
@@ -1883,7 +1927,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="43"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="1"/>
@@ -1894,7 +1938,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="12"/>
       <c r="U29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V29" s="3">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
@@ -1915,7 +1959,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="43"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
       <c r="N30" s="1"/>
@@ -1926,7 +1970,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="12"/>
       <c r="U30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V30" s="3">
         <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
@@ -1947,7 +1991,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="43"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
       <c r="N31" s="1"/>
@@ -1958,7 +2002,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="12"/>
       <c r="U31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="12"/>
@@ -1976,7 +2020,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="43"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
       <c r="N32" s="1"/>
@@ -1987,7 +2031,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="12"/>
       <c r="U32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V32" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
@@ -2008,7 +2052,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="43"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="1"/>
@@ -2019,7 +2063,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="12"/>
       <c r="U33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V33" s="3">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
@@ -2040,7 +2084,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="43"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="1"/>
@@ -2051,7 +2095,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="12"/>
       <c r="U34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V34" s="3">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
@@ -2072,7 +2116,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="43"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
       <c r="N35" s="1"/>
@@ -2083,7 +2127,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="12"/>
       <c r="U35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="12"/>
@@ -2101,7 +2145,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="43"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="1"/>
@@ -2112,7 +2156,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="12"/>
       <c r="U36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="12"/>
@@ -2130,7 +2174,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="43"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="1"/>
@@ -2141,7 +2185,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="12"/>
       <c r="U37" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="12"/>
@@ -2159,7 +2203,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="43"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="1"/>
@@ -2186,7 +2230,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="43"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="1"/>
@@ -2213,7 +2257,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="43"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
       <c r="N40" s="1"/>
@@ -2224,7 +2268,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="12"/>
       <c r="U40" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V40" s="3">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
@@ -2245,7 +2289,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="43"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="1"/>
@@ -2256,7 +2300,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="12"/>
       <c r="U41" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
@@ -2277,7 +2321,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="43"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="1"/>
@@ -2304,7 +2348,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="43"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
       <c r="N43" s="1"/>
@@ -2331,7 +2375,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="43"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="1"/>
@@ -2345,13 +2389,13 @@
         <v>3</v>
       </c>
       <c r="V44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2367,7 +2411,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
       <c r="N45" s="1"/>
@@ -2378,7 +2422,7 @@
       <c r="S45" s="3"/>
       <c r="T45" s="12"/>
       <c r="U45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V45" s="3">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -2406,7 +2450,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="43"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
       <c r="N46" s="1"/>
@@ -2417,7 +2461,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="12"/>
       <c r="U46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V46" s="3">
         <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -2445,7 +2489,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="43"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
       <c r="N47" s="1"/>
@@ -2456,7 +2500,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="12"/>
       <c r="U47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V47" s="3">
         <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -2484,7 +2528,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="43"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
       <c r="N48" s="1"/>
@@ -2493,12 +2537,12 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="28">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+      <c r="T48" s="28" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="3">
         <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -2526,7 +2570,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="43"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
       <c r="N49" s="1"/>
@@ -2554,7 +2598,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="43"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
       <c r="N50" s="1"/>
@@ -2582,7 +2626,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="43"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33"/>
       <c r="N51" s="1"/>
@@ -2610,7 +2654,7 @@
       <c r="H52" s="26"/>
       <c r="I52" s="43"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
       <c r="N52" s="1"/>
@@ -2638,7 +2682,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="43"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33"/>
       <c r="N53" s="1"/>
@@ -2666,7 +2710,7 @@
       <c r="H54" s="26"/>
       <c r="I54" s="43"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33"/>
       <c r="N54" s="1"/>
@@ -2694,7 +2738,7 @@
       <c r="H55" s="26"/>
       <c r="I55" s="43"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33"/>
       <c r="N55" s="1"/>
@@ -2722,7 +2766,7 @@
       <c r="H56" s="26"/>
       <c r="I56" s="43"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33"/>
       <c r="N56" s="1"/>
@@ -2748,7 +2792,7 @@
       <c r="H57" s="26"/>
       <c r="I57" s="43"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33"/>
       <c r="N57" s="1"/>
@@ -2774,7 +2818,7 @@
       <c r="H58" s="26"/>
       <c r="I58" s="43"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
       <c r="N58" s="1"/>
@@ -2797,7 +2841,7 @@
       <c r="H59" s="26"/>
       <c r="I59" s="43"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
       <c r="N59" s="1"/>
@@ -2820,7 +2864,7 @@
       <c r="H60" s="26"/>
       <c r="I60" s="43"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
       <c r="N60" s="1"/>
@@ -2843,10 +2887,10 @@
       <c r="H61" s="26"/>
       <c r="I61" s="44"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="33" t="s">
-        <v>61</v>
-      </c>
+      <c r="K61" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="33"/>
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
@@ -2868,10 +2912,10 @@
       <c r="H62" s="26"/>
       <c r="I62" s="44"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="33" t="s">
-        <v>61</v>
-      </c>
+      <c r="K62" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="33"/>
       <c r="M62" s="26"/>
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
@@ -2893,10 +2937,10 @@
       <c r="H63" s="26"/>
       <c r="I63" s="44"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="33" t="s">
-        <v>61</v>
-      </c>
+      <c r="K63" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" s="33"/>
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
@@ -2918,10 +2962,10 @@
       <c r="H64" s="26"/>
       <c r="I64" s="44"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="33" t="s">
-        <v>61</v>
-      </c>
+      <c r="K64" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="33"/>
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
       <c r="O64" s="26"/>
@@ -2943,10 +2987,10 @@
       <c r="H65" s="26"/>
       <c r="I65" s="44"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="33" t="s">
-        <v>61</v>
-      </c>
+      <c r="K65" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" s="33"/>
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
       <c r="O65" s="26"/>
@@ -3207,6 +3251,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -3214,17 +3269,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3268,41 +3312,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="71"/>
+      <c r="A2" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -3335,57 +3379,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="67"/>
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="76"/>
       <c r="L4" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="67" t="s">
-        <v>53</v>
+      <c r="U4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>4</v>
@@ -3405,34 +3449,34 @@
         <v>5</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>12</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>13</v>
       </c>
       <c r="L5" s="74"/>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>1</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="32"/>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
@@ -3451,11 +3495,11 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
-        <v>18</v>
+      <c r="U6" s="68" t="s">
+        <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W6" s="12"/>
     </row>
@@ -3482,9 +3526,9 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W7" s="12"/>
     </row>
@@ -3511,9 +3555,9 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W8" s="12"/>
     </row>
@@ -3540,9 +3584,9 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9" s="12"/>
     </row>
@@ -3569,9 +3613,9 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W10" s="12"/>
     </row>
@@ -3598,9 +3642,9 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W11" s="12"/>
     </row>
@@ -3627,11 +3671,11 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
-        <v>19</v>
+      <c r="U12" s="68" t="s">
+        <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W12" s="12"/>
     </row>
@@ -3658,9 +3702,9 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" s="12"/>
     </row>
@@ -3687,9 +3731,9 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W14" s="12"/>
     </row>
@@ -3716,9 +3760,9 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W15" s="12"/>
     </row>
@@ -3745,9 +3789,9 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W16" s="12"/>
     </row>
@@ -3829,10 +3873,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="12"/>
       <c r="U19" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W19" s="38"/>
     </row>
@@ -3860,7 +3904,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="12"/>
       <c r="U20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
@@ -3892,7 +3936,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="12"/>
       <c r="U21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
@@ -3924,7 +3968,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="12"/>
       <c r="U22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
@@ -4010,10 +4054,10 @@
       <c r="S25" s="3"/>
       <c r="T25" s="12"/>
       <c r="U25" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W25" s="38"/>
     </row>
@@ -4041,7 +4085,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="12"/>
       <c r="U26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
@@ -4073,7 +4117,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="12"/>
       <c r="U27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V27" s="3">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
@@ -4105,7 +4149,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="12"/>
       <c r="U28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V28" s="3">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
@@ -4137,7 +4181,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="12"/>
       <c r="U29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V29" s="3">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
@@ -4169,7 +4213,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="12"/>
       <c r="U30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V30" s="3">
         <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
@@ -4201,7 +4245,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="12"/>
       <c r="U31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
@@ -4233,7 +4277,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="12"/>
       <c r="U32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V32" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
@@ -4265,7 +4309,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="12"/>
       <c r="U33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V33" s="3">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
@@ -4297,7 +4341,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="12"/>
       <c r="U34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V34" s="3">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
@@ -4329,7 +4373,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="12"/>
       <c r="U35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
@@ -4361,7 +4405,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="12"/>
       <c r="U36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V36" s="3">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
@@ -4393,7 +4437,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="12"/>
       <c r="U37" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
@@ -4479,7 +4523,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="12"/>
       <c r="U40" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V40" s="3">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
@@ -4511,7 +4555,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="12"/>
       <c r="U41" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
@@ -4600,13 +4644,13 @@
         <v>3</v>
       </c>
       <c r="V44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4633,7 +4677,7 @@
       <c r="S45" s="3"/>
       <c r="T45" s="12"/>
       <c r="U45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V45" s="3">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -4672,7 +4716,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="12"/>
       <c r="U46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V46" s="3">
         <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -4711,7 +4755,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="12"/>
       <c r="U47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V47" s="3">
         <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -4753,7 +4797,7 @@
         <v>#REF!</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="3">
         <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
@@ -4976,6 +5020,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4987,13 +5038,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_Zcar.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_Zcar.xlsx
@@ -658,6 +658,33 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,37 +700,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,41 +1045,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1112,57 +1112,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="69"/>
+      <c r="L4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="69" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1193,27 +1193,27 @@
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="68">
         <v>45034</v>
       </c>
-      <c r="C6" s="83">
-        <v>45035</v>
+      <c r="C6" s="68">
+        <v>45111</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>62</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="S6" s="65"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1287,7 +1287,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="65"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="65"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="65"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="65"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1463,7 +1463,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3251,6 +3251,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3262,13 +3269,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3312,41 +3312,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -3379,57 +3379,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="69"/>
+      <c r="L4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="69" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3460,16 +3460,16 @@
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="77" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3526,7 +3526,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3702,7 +3702,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -5020,13 +5020,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5038,6 +5031,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
